--- a/TeamData/2022-23/10-24-2022-23.xlsx
+++ b/TeamData/2022-23/10-24-2022-23.xlsx
@@ -802,7 +802,7 @@
         <v>20.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.3</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>111.3</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB2" t="n">
         <v>18</v>
@@ -981,7 +981,7 @@
         <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
         <v>21.3</v>
@@ -1062,7 +1062,7 @@
         <v>23</v>
       </c>
       <c r="BA3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB3" t="n">
         <v>12</v>
@@ -1163,7 +1163,7 @@
         <v>3.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="AA4" t="n">
         <v>21.3</v>
@@ -1244,7 +1244,7 @@
         <v>27</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>16</v>
@@ -1345,7 +1345,7 @@
         <v>8</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>22.7</v>
       </c>
       <c r="AA5" t="n">
         <v>18</v>
@@ -1423,7 +1423,7 @@
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA5" t="n">
         <v>29</v>
@@ -1530,7 +1530,7 @@
         <v>19.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="AB6" t="n">
         <v>108</v>
@@ -1605,10 +1605,10 @@
         <v>18</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB6" t="n">
         <v>22</v>
@@ -1709,10 +1709,10 @@
         <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="AB7" t="n">
         <v>116.7</v>
@@ -1787,10 +1787,10 @@
         <v>14</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BB7" t="n">
         <v>11</v>
@@ -1891,7 +1891,7 @@
         <v>6.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
         <v>29</v>
@@ -1969,7 +1969,7 @@
         <v>24</v>
       </c>
       <c r="AZ8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -2076,7 +2076,7 @@
         <v>23.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AB9" t="n">
         <v>115.5</v>
@@ -2258,7 +2258,7 @@
         <v>20.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="AB10" t="n">
         <v>111.3</v>
@@ -2333,7 +2333,7 @@
         <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA10" t="n">
         <v>5</v>
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="AZ11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA11" t="n">
         <v>6</v>
@@ -2619,10 +2619,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AB12" t="n">
         <v>112</v>
@@ -2700,7 +2700,7 @@
         <v>12</v>
       </c>
       <c r="BA12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB12" t="n">
         <v>17</v>
@@ -2801,7 +2801,7 @@
         <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="AA13" t="n">
         <v>20.3</v>
@@ -3061,7 +3061,7 @@
         <v>8</v>
       </c>
       <c r="AZ14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA14" t="n">
         <v>19</v>
@@ -3347,10 +3347,10 @@
         <v>6.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="AA16" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="AB16" t="n">
         <v>118.5</v>
@@ -3425,7 +3425,7 @@
         <v>23</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
         <v>3</v>
@@ -3529,10 +3529,10 @@
         <v>7</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="AB17" t="n">
         <v>103.5</v>
@@ -3607,7 +3607,7 @@
         <v>27</v>
       </c>
       <c r="AZ17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
         <v>4</v>
@@ -3893,7 +3893,7 @@
         <v>4.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AA19" t="n">
         <v>21.3</v>
@@ -3974,7 +3974,7 @@
         <v>6</v>
       </c>
       <c r="BA19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB19" t="n">
         <v>13</v>
@@ -4078,7 +4078,7 @@
         <v>19</v>
       </c>
       <c r="AA20" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="AB20" t="n">
         <v>125</v>
@@ -4156,7 +4156,7 @@
         <v>3</v>
       </c>
       <c r="BA20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB20" t="n">
         <v>2</v>
@@ -4335,10 +4335,10 @@
         <v>8</v>
       </c>
       <c r="AZ21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB21" t="n">
         <v>6</v>
@@ -4517,7 +4517,7 @@
         <v>12</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BA22" t="n">
         <v>25</v>
@@ -4621,7 +4621,7 @@
         <v>3.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="AA23" t="n">
         <v>22</v>
@@ -4699,7 +4699,7 @@
         <v>5</v>
       </c>
       <c r="AZ23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA23" t="n">
         <v>9</v>
@@ -4806,7 +4806,7 @@
         <v>18.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AB24" t="n">
         <v>107.5</v>
@@ -4884,7 +4884,7 @@
         <v>2</v>
       </c>
       <c r="BA24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB24" t="n">
         <v>24</v>
@@ -4985,10 +4985,10 @@
         <v>3</v>
       </c>
       <c r="Z25" t="n">
-        <v>24.7</v>
+        <v>25.3</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="AB25" t="n">
         <v>110</v>
@@ -5063,10 +5063,10 @@
         <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA25" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BB25" t="n">
         <v>21</v>
@@ -5167,10 +5167,10 @@
         <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>17.3</v>
+        <v>17.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="AB26" t="n">
         <v>117.3</v>
@@ -5427,7 +5427,7 @@
         <v>3</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
         <v>25</v>
@@ -5534,7 +5534,7 @@
         <v>20.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="AB28" t="n">
         <v>117</v>
@@ -5612,7 +5612,7 @@
         <v>9</v>
       </c>
       <c r="BA28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BB28" t="n">
         <v>10</v>
@@ -5713,10 +5713,10 @@
         <v>5.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.8</v>
+        <v>20.3</v>
       </c>
       <c r="AB29" t="n">
         <v>105</v>
@@ -5791,10 +5791,10 @@
         <v>20</v>
       </c>
       <c r="AZ29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>27</v>
@@ -5973,10 +5973,10 @@
         <v>20</v>
       </c>
       <c r="AZ30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB30" t="n">
         <v>4</v>
@@ -6077,7 +6077,7 @@
         <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="AA31" t="n">
         <v>18.3</v>
